--- a/plan/工作计划.xlsx
+++ b/plan/工作计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7740"/>
+    <workbookView windowWidth="19890" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="2019.12" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>任务名称</t>
   </si>
@@ -119,19 +119,32 @@
     <t>PIS模型功能展示</t>
   </si>
   <si>
-    <t>linux开发环境搭建</t>
-  </si>
-  <si>
-    <t>1天</t>
-  </si>
-  <si>
-    <t>ARM运行环境模拟测试</t>
-  </si>
-  <si>
-    <t>嵌入式资料整理</t>
-  </si>
-  <si>
-    <t>嵌入式计数交流</t>
+    <t>完成C++11基础学习</t>
+  </si>
+  <si>
+    <t>继续QT Creator的学习</t>
+  </si>
+  <si>
+    <t>熟悉实验品</t>
+  </si>
+  <si>
+    <t>c++收尾</t>
+  </si>
+  <si>
+    <t>QT学习到第八章</t>
+  </si>
+  <si>
+    <t>嵌入式技术交流 - 开发板
+  - 内核移植准备工作
+  - Linux系统
+  - Bootloader
+  - 内核移植
+  - 文件系统移植
+  - QT移植
+  - Hello word</t>
+  </si>
+  <si>
+    <t>iMX6Q开发板实验</t>
   </si>
 </sst>
 </file>
@@ -139,10 +152,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -161,6 +174,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -177,24 +198,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,54 +226,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,44 +317,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -314,13 +327,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,169 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +518,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,30 +602,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -575,36 +618,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -613,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,137 +638,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,11 +793,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1105,10 +1115,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="A19" sqref="A19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1301,7 +1311,7 @@
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="7">
@@ -1318,10 +1328,10 @@
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>43833</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1329,70 +1339,115 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5">
+        <v>43836</v>
+      </c>
+      <c r="D14" s="5">
+        <v>43837</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="7">
-        <v>43829</v>
-      </c>
-      <c r="D14" s="7">
-        <v>43829</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5">
+        <v>43836</v>
+      </c>
+      <c r="D15" s="5">
+        <v>43840</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5">
+        <v>43840</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5">
+        <v>43836</v>
+      </c>
+      <c r="D17" s="5">
+        <v>43837</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="5">
+        <v>43836</v>
+      </c>
+      <c r="D18" s="5">
+        <v>43840</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" ht="108" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>43836</v>
+      </c>
+      <c r="D19" s="7">
+        <v>43838</v>
+      </c>
+      <c r="E19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="9">
-        <v>43830</v>
-      </c>
-      <c r="D15" s="9">
-        <v>43861</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="7">
-        <v>43832</v>
-      </c>
-      <c r="D16" s="9">
-        <v>43832</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7">
-        <v>43833</v>
-      </c>
-      <c r="D17" s="7">
-        <v>43833</v>
-      </c>
-      <c r="E17" s="8" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>43839</v>
+      </c>
+      <c r="D20" s="7">
+        <v>43840</v>
+      </c>
+      <c r="E20" t="s">
         <v>20</v>
       </c>
     </row>

--- a/plan/工作计划.xlsx
+++ b/plan/工作计划.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitWorkSpace\HanHua\plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77804A2-E016-4711-9DF0-676549DBFCE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7740"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019.12" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>任务名称</t>
   </si>
@@ -48,6 +54,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -58,6 +65,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -134,30 +142,25 @@
     <t>QT学习到第八章</t>
   </si>
   <si>
-    <t>嵌入式技术交流 - 开发板
-  - 内核移植准备工作
-  - Linux系统
-  - Bootloader
-  - 内核移植
-  - 文件系统移植
-  - QT移植
-  - Hello word</t>
-  </si>
-  <si>
-    <t>iMX6Q开发板实验</t>
+    <t>QT学习</t>
+  </si>
+  <si>
+    <t>深度熟悉实验产品（PA系统）</t>
+  </si>
+  <si>
+    <t>嵌入式技术交流 - 讲解,演示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式技术交流 - 实验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,349 +173,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -520,255 +209,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,64 +241,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1109,28 +521,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:E20"/>
+      <selection activeCell="A21" sqref="A21:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35.75" customWidth="1"/>
     <col min="2" max="2" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="11.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1179,7 +591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1228,7 +640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1262,7 +674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1276,7 +688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1293,7 +705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1307,7 +719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1324,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1338,7 +750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1355,7 +767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1372,7 +784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1383,7 +795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1400,7 +812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -1417,43 +829,65 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" ht="108" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7">
-        <v>43836</v>
-      </c>
-      <c r="D19" s="7">
-        <v>43838</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C19" s="9">
+        <v>43843</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="9">
+        <v>43843</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="7">
+        <v>43843</v>
+      </c>
+      <c r="D21" s="11">
+        <v>43843</v>
+      </c>
+      <c r="E21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" s="7">
-        <v>43839</v>
-      </c>
-      <c r="D20" s="7">
-        <v>43840</v>
-      </c>
-      <c r="E20" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>4.5</v>
+      </c>
+      <c r="C22" s="7">
+        <v>43843</v>
+      </c>
+      <c r="D22" s="7">
+        <v>43847</v>
+      </c>
+      <c r="E22" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/plan/工作计划.xlsx
+++ b/plan/工作计划.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitWorkSpace\HanHua\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77804A2-E016-4711-9DF0-676549DBFCE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD2556E-D961-4A18-AA73-508233D1FC12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019.12" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>任务名称</t>
   </si>
@@ -154,6 +162,90 @@
   <si>
     <t>嵌入式技术交流 - 实验</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入了解实验室系统（着重CCTCV）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金辉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT学习到第十章</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCCTV子系统调研</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任尧岭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCCTV子系统方案制定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCCTV子系统概要设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCCTV硬件定制采购</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCCTV硬件采购,软件设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCCTV软件开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCCTV系统集成与调式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCCTV1.1发布</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度熟悉实验室产品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2天</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT学习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5天</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT小程序实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与汉桦方案设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新完善青岛地铁1号线方案</t>
+  </si>
+  <si>
+    <t>了解IRIS认证需求</t>
+  </si>
+  <si>
+    <t>更新完善地铁方案通用版本</t>
+  </si>
+  <si>
+    <t>制定IRIS材料准备计划</t>
   </si>
 </sst>
 </file>
@@ -215,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,6 +344,11 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -527,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -885,9 +982,394 @@
         <v>20</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7">
+        <v>43843</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="7">
+        <v>43843</v>
+      </c>
+      <c r="D24" s="7">
+        <v>43847</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7">
+        <v>43864</v>
+      </c>
+      <c r="D25" s="7">
+        <v>43868</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="7">
+        <v>43871</v>
+      </c>
+      <c r="D26" s="7">
+        <v>43875</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" s="7">
+        <v>43878</v>
+      </c>
+      <c r="D27" s="7">
+        <v>43882</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>43885</v>
+      </c>
+      <c r="D28" s="7">
+        <v>43886</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>43887</v>
+      </c>
+      <c r="D29" s="7">
+        <v>43889</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" s="7">
+        <v>43892</v>
+      </c>
+      <c r="D30" s="7">
+        <v>43896</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" s="7">
+        <v>43899</v>
+      </c>
+      <c r="D31" s="7">
+        <v>43903</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="7">
+        <v>43906</v>
+      </c>
+      <c r="D32" s="7">
+        <v>43910</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="7">
+        <v>43913</v>
+      </c>
+      <c r="D33" s="7">
+        <v>43917</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" s="7">
+        <v>43920</v>
+      </c>
+      <c r="D34" s="7">
+        <v>43921</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="14">
+        <v>43850</v>
+      </c>
+      <c r="D35" s="14">
+        <v>43851</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="14">
+        <v>43850</v>
+      </c>
+      <c r="D36" s="14">
+        <v>43851</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="14">
+        <v>43871</v>
+      </c>
+      <c r="D37" s="14">
+        <v>43875</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="14">
+        <v>43871</v>
+      </c>
+      <c r="D38" s="14">
+        <v>43875</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="14">
+        <v>43878</v>
+      </c>
+      <c r="D39" s="14">
+        <v>43882</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="14">
+        <v>43878</v>
+      </c>
+      <c r="D40" s="14">
+        <v>43882</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="14">
+        <v>43885</v>
+      </c>
+      <c r="D41" s="14">
+        <v>43889</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="9">
+        <v>43878</v>
+      </c>
+      <c r="D42" s="9">
+        <v>43882</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="9">
+        <v>43878</v>
+      </c>
+      <c r="D43" s="9">
+        <v>43882</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="9">
+        <v>43885</v>
+      </c>
+      <c r="D44" s="9">
+        <v>43889</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="9">
+        <v>43885</v>
+      </c>
+      <c r="D45" s="9">
+        <v>43889</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>